--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C96CAC3-6062-4DED-9A07-0EE2FF3CEA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA0D1DC-1218-4817-9B87-0D6BB17C328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5985" yWindow="3495" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Vendors</t>
   </si>
   <si>
     <t>Put an X here if you're going to use this vendor</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Bill Amount</t>
-  </si>
-  <si>
-    <t>Custom Bill</t>
   </si>
   <si>
     <t>Envelope</t>
@@ -423,7 +414,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,20 +433,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
       <c r="I1">
         <v>33100</v>
@@ -463,94 +445,94 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA0D1DC-1218-4817-9B87-0D6BB17C328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D3348-39F4-4381-BCCB-D88CF849197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="3495" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Vendors</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Stevenson Crane</t>
+  </si>
+  <si>
+    <t>Garlock Chicago Inc.</t>
+  </si>
+  <si>
+    <t>Berridge Manufacturing Company</t>
+  </si>
+  <si>
+    <t>Todd J. Milne</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,12 +449,12 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33100</v>
+        <v>33176</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -453,7 +462,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -464,24 +473,36 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -532,6 +553,16 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D3348-39F4-4381-BCCB-D88CF849197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445EA68E-C05E-4112-8848-5100B42801EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Vendors</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>Todd J. Milne</t>
+  </si>
+  <si>
+    <t>ABC Supply</t>
+  </si>
+  <si>
+    <t>Beacon</t>
+  </si>
+  <si>
+    <t>Gemco Supply</t>
+  </si>
+  <si>
+    <t>Alta Equipment Company</t>
+  </si>
+  <si>
+    <t>Petersen Aluminum Corp.</t>
   </si>
 </sst>
 </file>
@@ -420,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +450,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,104 +464,122 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33183</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>3</v>
       </c>
@@ -563,6 +596,31 @@
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445EA68E-C05E-4112-8848-5100B42801EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3352E4-8564-4A9A-8BBD-E8FA7A03BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>Vendors</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Petersen Aluminum Corp.</t>
+  </si>
+  <si>
+    <t>Totem Lumber &amp; Supply</t>
+  </si>
+  <si>
+    <t>D &amp; P Construction Co. Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +457,7 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -464,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33183</v>
+        <v>33258</v>
       </c>
       <c r="J1">
         <v>7</v>
@@ -474,6 +484,9 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -490,6 +503,9 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -504,7 +520,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
@@ -512,7 +528,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -520,10 +536,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
@@ -531,7 +547,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -539,10 +555,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -550,10 +563,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
@@ -561,15 +571,21 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" t="s">
         <v>3</v>
       </c>
@@ -621,6 +637,11 @@
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3352E4-8564-4A9A-8BBD-E8FA7A03BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C297875-8FA7-4297-A89E-83A944988C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="30270" yWindow="1155" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Vendors</t>
   </si>
@@ -92,7 +92,7 @@
     <t>D &amp; P Construction Co. Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>monthly_bill_payment.py</t>
   </si>
 </sst>
 </file>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,24 +474,21 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33258</v>
-      </c>
-      <c r="J1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33264</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -499,18 +496,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -518,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -526,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -534,18 +528,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -553,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -561,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -569,20 +560,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -590,12 +584,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>3</v>
       </c>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C297875-8FA7-4297-A89E-83A944988C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B17001B-016F-4AF7-9B73-D3C21184A18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="1155" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Vendors</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>monthly_bill_payment.py</t>
+  </si>
+  <si>
+    <t>Turek &amp; Sons, LLC</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33264</v>
+        <v>33304</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -548,6 +551,9 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -585,6 +591,15 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B17001B-016F-4AF7-9B73-D3C21184A18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8962C4-7827-4D72-96E8-B6280001A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Vendors</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Turek &amp; Sons, LLC</t>
+  </si>
+  <si>
+    <t>Holcim</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33304</v>
+        <v>33325</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -487,6 +490,9 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -503,6 +509,9 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -535,13 +544,16 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -549,10 +561,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -560,7 +569,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
@@ -568,10 +577,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
@@ -579,32 +585,29 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>3</v>
       </c>
@@ -651,6 +654,11 @@
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8962C4-7827-4D72-96E8-B6280001A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEFB64-ECC3-4CE2-8627-22FA400D749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Vendors</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Holcim</t>
+  </si>
+  <si>
+    <t>Metal-Era</t>
+  </si>
+  <si>
+    <t>Lakeshore Recyling</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33325</v>
+        <v>33390</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -490,9 +496,6 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -509,9 +512,6 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -536,6 +536,9 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
@@ -544,9 +547,6 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
@@ -561,23 +561,23 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
@@ -585,7 +585,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
@@ -593,12 +596,18 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
@@ -606,59 +615,72 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEFB64-ECC3-4CE2-8627-22FA400D749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E3C6AB-041C-4D31-8D6A-D731E68FD69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Vendors</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Lakeshore Recyling</t>
+  </si>
+  <si>
+    <t>Atlas Crane Service</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33390</v>
+        <v>33396</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -496,6 +499,9 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -510,7 +516,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -518,7 +524,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -526,7 +535,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
@@ -534,10 +543,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -545,7 +551,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
@@ -553,7 +559,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -561,34 +570,28 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
@@ -596,7 +599,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
@@ -604,10 +607,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
@@ -615,26 +615,29 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>3</v>
       </c>
@@ -681,6 +684,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E3C6AB-041C-4D31-8D6A-D731E68FD69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB599C5-6E42-4E63-A980-45C3ACA89F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Vendors</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Atlas Crane Service</t>
+  </si>
+  <si>
+    <t>Hernandez Lawn Service</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33396</v>
+        <v>33423</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -499,9 +502,6 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -526,9 +526,6 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -553,6 +550,9 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
@@ -561,16 +561,16 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -578,28 +578,28 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
@@ -623,26 +623,35 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -689,6 +698,11 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB599C5-6E42-4E63-A980-45C3ACA89F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644D8EF0-F6C2-48D9-AECC-7422E3906CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="39045" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Vendors</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Hernandez Lawn Service</t>
+  </si>
+  <si>
+    <t>Carlisle Roofing Systems Inc.</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33423</v>
+        <v>33439</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -518,6 +521,9 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -540,7 +546,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -548,10 +557,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
@@ -559,7 +565,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -567,10 +573,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -578,7 +581,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
@@ -586,28 +589,34 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
+      <c r="B15" t="s">
+        <v>3</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
@@ -615,7 +624,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
@@ -623,7 +635,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -634,29 +646,32 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>3</v>
       </c>
@@ -703,6 +718,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644D8EF0-F6C2-48D9-AECC-7422E3906CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3747ABB4-C9F1-409A-8C02-F158E0D84A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39045" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="1290" yWindow="3045" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Vendors</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33439</v>
+        <v>33460</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -505,6 +505,9 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -521,9 +524,6 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -532,6 +532,9 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -548,9 +551,6 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
@@ -575,6 +575,9 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -591,9 +594,6 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -615,9 +615,6 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
@@ -626,9 +623,6 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
@@ -637,9 +631,6 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
@@ -647,9 +638,6 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3747ABB4-C9F1-409A-8C02-F158E0D84A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CE3047-573A-4CE4-853C-124E1B701A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="3045" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Vendors</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33460</v>
+        <v>33498</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -505,9 +505,6 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -524,6 +521,9 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -532,9 +532,6 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -567,6 +564,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
@@ -575,9 +575,6 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -639,6 +636,9 @@
       <c r="A18" t="s">
         <v>7</v>
       </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
@@ -646,6 +646,9 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CE3047-573A-4CE4-853C-124E1B701A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B506C344-5098-4B53-9478-DC5D8CA2CFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Vendors</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33498</v>
+        <v>33516</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -505,6 +505,9 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -521,9 +524,6 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -564,9 +564,6 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
@@ -575,6 +572,9 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -612,6 +612,9 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
@@ -620,6 +623,9 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
@@ -628,6 +634,9 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
@@ -636,9 +645,6 @@
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
@@ -646,9 +652,6 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B506C344-5098-4B53-9478-DC5D8CA2CFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D421ABA-0676-49BF-9ECE-5863BBC3968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Vendors</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33516</v>
+        <v>33562</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -505,9 +505,6 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -564,6 +561,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
@@ -572,9 +572,6 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -612,9 +609,6 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
@@ -644,6 +638,9 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D421ABA-0676-49BF-9ECE-5863BBC3968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4752D-1F39-4B3C-BAEC-BDF984E5A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="3735" yWindow="3285" windowWidth="23190" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Vendors</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33562</v>
+        <v>33577</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -505,6 +505,9 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -561,9 +564,6 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
@@ -572,6 +572,9 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -617,9 +620,6 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
@@ -628,9 +628,6 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
@@ -638,9 +635,6 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4752D-1F39-4B3C-BAEC-BDF984E5A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0A97F-E721-40CA-9046-A2C5E2DFDFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="3285" windowWidth="23190" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Vendors</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Carlisle Roofing Systems Inc.</t>
+  </si>
+  <si>
+    <t>HUB International Midwest Limited</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33577</v>
+        <v>33625</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -597,28 +600,28 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
@@ -626,7 +629,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
@@ -634,7 +637,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
@@ -642,26 +645,29 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>3</v>
       </c>
@@ -708,6 +714,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0A97F-E721-40CA-9046-A2C5E2DFDFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C767255-D18F-4AC7-A4F9-4852ABB2439E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="5925" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Vendors</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>HUB International Midwest Limited</t>
+  </si>
+  <si>
+    <t>RP Rents</t>
+  </si>
+  <si>
+    <t>Bone Roofing Supply Inc.</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33625</v>
+        <v>33730</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -508,9 +514,6 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -527,6 +530,9 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -549,7 +555,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -557,7 +566,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
@@ -565,7 +577,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -573,10 +585,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -584,7 +593,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
@@ -592,7 +601,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
@@ -600,7 +609,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
@@ -608,28 +617,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
@@ -637,7 +652,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
@@ -645,7 +663,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
@@ -653,12 +674,18 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
@@ -666,18 +693,21 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>3</v>
       </c>
@@ -722,7 +752,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C767255-D18F-4AC7-A4F9-4852ABB2439E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7850AF16-FDD7-4E04-AFFC-F073529D1766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Vendors</t>
   </si>
@@ -477,7 +477,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33730</v>
+        <v>33901</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -530,9 +530,6 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -557,9 +554,6 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
@@ -568,9 +562,6 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
@@ -587,6 +578,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -611,6 +605,9 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
@@ -619,9 +616,6 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" t="s">
         <v>3</v>
       </c>
@@ -630,9 +624,6 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -665,9 +656,6 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
@@ -699,6 +687,9 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7850AF16-FDD7-4E04-AFFC-F073529D1766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9199F31-F77B-454F-A899-DCE161867883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="5280" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33901</v>
+        <v>33981</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -514,6 +514,9 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -538,6 +541,9 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -562,6 +568,9 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
@@ -578,9 +587,6 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -589,6 +595,9 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
@@ -605,9 +614,6 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
@@ -645,9 +651,6 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
@@ -687,9 +690,6 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>

--- a/Vendors - Monthly.xlsx
+++ b/Vendors - Monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9199F31-F77B-454F-A899-DCE161867883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE4061-3E8C-4946-86FB-569ED89796F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Vendors</t>
   </si>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>33981</v>
+        <v>34021</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -567,9 +567,6 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
